--- a/target/classes/STM32WIFI模块TCP通信协议.xlsx
+++ b/target/classes/STM32WIFI模块TCP通信协议.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Server\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Air\Air-Protocol\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8AD7D5-34DB-4D87-BFCB-BFCC02F75D23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897171D6-838A-4403-A7BE-3EA3733D79CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>0x01心跳包指令</t>
   </si>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大气数据2 PM2.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个字节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>25.2℃  0x19 0x02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,15 +103,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>250 0x00 0xfa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">0x00 0x00 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大气数据3 未使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -138,6 +122,30 @@
   <si>
     <t>1个字节
 0x24=36</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据3 pm2.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大气数据2 湿度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个字节 双精度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个字节 单精度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个字节 默认单精度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.0 0x19 0x00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -734,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -804,13 +812,13 @@
         <v>18</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>5</v>
@@ -821,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -836,27 +844,27 @@
         <v>8</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
@@ -871,16 +879,16 @@
         <v>17</v>
       </c>
       <c r="G5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K5" s="17"/>
     </row>
